--- a/biology/Médecine/Phobie_administrative/Phobie_administrative.xlsx
+++ b/biology/Médecine/Phobie_administrative/Phobie_administrative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phobie administrative est une phobie liée aux formalités administratives, quelles qu'elles soient.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les déclarations fiscales[1] et autres obligations déclaratives sont souvent pointées et le sujet tourné en dérision, objet constant d'humour et de moqueries, notamment face aux politiques qui présentent cet argument lorsque leurs manquements fiscaux sont médiatisés et dénoncés[2]. Par exemple, lorsque Mediapart révèle en 2014 que Thomas Thévenoud ne déclarait pas ses revenus et ne payait pas ses impôts depuis plusieurs années, il évoque sa phobie administrative : pour autant, ça ne l'empêche pas de remplir ensuite les formalités pour déposer l'expression, en tant que marque verbale auprès de l'Institut national de la propriété industrielle (INPI)[3],[4]…
-Si l'on dépasse néanmoins les visions moralistes présupposant systématiquement des impostures, cette phobie est pourtant particulièrement handicapante, source d'angoisse et de préjudices importants pour les rares personnes qui en souffrent réellement dans des proportions critiques[5],[6]. S'il ne leur est pas exclusif, ce blocage est particulièrement marqué chez les personnes en détresse sociale[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les déclarations fiscales et autres obligations déclaratives sont souvent pointées et le sujet tourné en dérision, objet constant d'humour et de moqueries, notamment face aux politiques qui présentent cet argument lorsque leurs manquements fiscaux sont médiatisés et dénoncés. Par exemple, lorsque Mediapart révèle en 2014 que Thomas Thévenoud ne déclarait pas ses revenus et ne payait pas ses impôts depuis plusieurs années, il évoque sa phobie administrative : pour autant, ça ne l'empêche pas de remplir ensuite les formalités pour déposer l'expression, en tant que marque verbale auprès de l'Institut national de la propriété industrielle (INPI),…
+Si l'on dépasse néanmoins les visions moralistes présupposant systématiquement des impostures, cette phobie est pourtant particulièrement handicapante, source d'angoisse et de préjudices importants pour les rares personnes qui en souffrent réellement dans des proportions critiques,. S'il ne leur est pas exclusif, ce blocage est particulièrement marqué chez les personnes en détresse sociale,.
 </t>
         </is>
       </c>
